--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员信息.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员信息.xlsx
@@ -152,10 +152,10 @@
     <t xml:space="preserve">Donald</t>
   </si>
   <si>
-    <t xml:space="preserve">郑雨薇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/4 14:15:26</t>
+    <t xml:space="preserve">查明芳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/6 9:43:52</t>
   </si>
   <si>
     <t xml:space="preserve">2018/6/1 13:10:07</t>
@@ -421,7 +421,7 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
@@ -478,7 +478,7 @@
         <v>50</v>
       </c>
       <c r="J7">
-        <v>545</v>
+        <v>848</v>
       </c>
       <c r="K7" t="s">
         <v>51</v>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员信息.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员信息.xlsx
@@ -161,7 +161,7 @@
     <t xml:space="preserve">2018/6/1 13:10:07</t>
   </si>
   <si>
-    <t xml:space="preserve">13880954084</t>
+    <t xml:space="preserve">18161222015</t>
   </si>
   <si>
     <t xml:space="preserve">989718043305181184</t>
@@ -385,7 +385,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -478,7 +478,7 @@
         <v>50</v>
       </c>
       <c r="J7">
-        <v>848</v>
+        <v>855</v>
       </c>
       <c r="K7" t="s">
         <v>51</v>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员信息.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员信息.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve">微信OpenId</t>
   </si>
@@ -50,25 +50,25 @@
     <t xml:space="preserve">审核状态</t>
   </si>
   <si>
-    <t xml:space="preserve">oPM5Uv89yy7Iv8k9gLHjjsMTT5Gw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呦呦路鸣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内部员工</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张三</t>
+    <t xml:space="preserve">oPM5Uv1kErYeF3EmBcT_FjO2zgiw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">芳芳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">零售客户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵曦</t>
   </si>
   <si>
     <t xml:space="preserve">已绑定</t>
   </si>
   <si>
-    <t xml:space="preserve">2018/6/1 13:12:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/1 12:42:19</t>
+    <t xml:space="preserve">2018/6/1 0:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 10:30:54</t>
   </si>
   <si>
     <t xml:space="preserve">18022365962</t>
@@ -80,72 +80,9 @@
     <t xml:space="preserve">False</t>
   </si>
   <si>
-    <t xml:space="preserve">oPM5Uv7dX12F4XyYaoQHOcImY83o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未注册</t>
-  </si>
-  <si>
-    <t xml:space="preserve">消费者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未绑定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/4/28 0:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/5/31 17:09:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oPM5Uv1kErYeF3EmBcT_FjO2zgiw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">芳芳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">零售客户</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赵曦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/1 0:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/1 10:30:54</t>
-  </si>
-  <si>
     <t xml:space="preserve">未审核</t>
   </si>
   <si>
-    <t xml:space="preserve">oPM5Uv7hTIt157DKHadJBuzmpejc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">绿袖子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/1 12:34:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oPM5Uv3D1GrL9nGkwtkgEtM2IYbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">～萍～</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魏叶萍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/5/11 18:28:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/1 12:41:24</t>
-  </si>
-  <si>
     <t xml:space="preserve">oPM5Uv81jfyJqWbVxWAH-RUqsCAs</t>
   </si>
   <si>
@@ -161,7 +98,7 @@
     <t xml:space="preserve">2018/6/1 13:10:07</t>
   </si>
   <si>
-    <t xml:space="preserve">13880954084</t>
+    <t xml:space="preserve">18161222015</t>
   </si>
   <si>
     <t xml:space="preserve">989718043305181184</t>
@@ -301,190 +238,46 @@
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2"/>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J3">
-        <v>80</v>
+        <v>875</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="L3" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>80</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7">
-        <v>848</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员信息.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员信息.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t xml:space="preserve">微信OpenId</t>
   </si>
@@ -50,6 +50,75 @@
     <t xml:space="preserve">审核状态</t>
   </si>
   <si>
+    <t xml:space="preserve">关注时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取关时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oPM5Uv89yy7Iv8k9gLHjjsMTT5Gw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呦呦路鸣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内部员工</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查明芳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已绑定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/12 16:14:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 12:42:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13880954084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">565465656549656655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已审核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oPM5Uv7dX12F4XyYaoQHOcImY83o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未注册</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消费者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未绑定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/4/28 0:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/5/31 17:09:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18022365962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/14 9:59:54</t>
+  </si>
+  <si>
     <t xml:space="preserve">oPM5Uv1kErYeF3EmBcT_FjO2zgiw</t>
   </si>
   <si>
@@ -62,36 +131,63 @@
     <t xml:space="preserve">赵曦</t>
   </si>
   <si>
-    <t xml:space="preserve">已绑定</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018/6/1 0:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">2018/6/1 10:30:54</t>
   </si>
   <si>
-    <t xml:space="preserve">18022365962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">565465656549656655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
     <t xml:space="preserve">未审核</t>
   </si>
   <si>
+    <t xml:space="preserve">oPM5Uv7hTIt157DKHadJBuzmpejc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">绿袖子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 12:34:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oPM5Uv3D1GrL9nGkwtkgEtM2IYbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">～萍～</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魏叶萍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/5/11 18:28:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 12:41:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">詹周月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oB4nYjnoHhuWrPVi2pYLuPjnCaU0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undefined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨帆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">666666656549656655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/13 10:30:54</t>
+  </si>
+  <si>
     <t xml:space="preserve">oPM5Uv81jfyJqWbVxWAH-RUqsCAs</t>
   </si>
   <si>
     <t xml:space="preserve">Donald</t>
   </si>
   <si>
-    <t xml:space="preserve">查明芳</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018/6/6 9:43:52</t>
   </si>
   <si>
@@ -104,10 +200,10 @@
     <t xml:space="preserve">989718043305181184</t>
   </si>
   <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已审核</t>
+    <t xml:space="preserve">铅笔的彩色天空-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵匡胤</t>
   </si>
 </sst>
 </file>
@@ -203,82 +299,362 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2">
-        <v>80</v>
+        <v>1110</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M2"/>
+      <c r="N2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>80</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>80</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9">
+        <v>1375</v>
+      </c>
+      <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="J3">
-        <v>875</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员信息.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员信息.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t xml:space="preserve">微信OpenId</t>
   </si>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">关注时间</t>
   </si>
   <si>
-    <t xml:space="preserve">取关时间</t>
+    <t xml:space="preserve">取消关注时间</t>
   </si>
   <si>
     <t xml:space="preserve">oPM5Uv89yy7Iv8k9gLHjjsMTT5Gw</t>
@@ -65,127 +65,133 @@
     <t xml:space="preserve">内部员工</t>
   </si>
   <si>
+    <t xml:space="preserve">郑楚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已绑定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/12 16:14:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 12:42:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13880954084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">565465656549656655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oPM5Uv7dX12F4XyYaoQHOcImY83o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未注册</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消费者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未绑定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/4/28 0:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/5/31 17:09:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18022365962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/14 9:59:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oPM5Uv1kErYeF3EmBcT_FjO2zgiw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">芳芳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">零售客户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵曦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 0:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 10:30:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未审核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oPM5Uv7hTIt157DKHadJBuzmpejc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">绿袖子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 12:34:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oPM5Uv3D1GrL9nGkwtkgEtM2IYbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">～萍～</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魏叶萍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/5/11 18:28:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 12:41:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">詹周月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oB4nYjnoHhuWrPVi2pYLuPjnCaU0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undefined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨帆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/14 14:35:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">666666656549656655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已审核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/13 10:30:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oPM5Uv81jfyJqWbVxWAH-RUqsCAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">查明芳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已绑定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/12 16:14:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/1 12:42:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13880954084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">565465656549656655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已审核</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oPM5Uv7dX12F4XyYaoQHOcImY83o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未注册</t>
-  </si>
-  <si>
-    <t xml:space="preserve">消费者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未绑定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/4/28 0:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/5/31 17:09:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18022365962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/14 9:59:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oPM5Uv1kErYeF3EmBcT_FjO2zgiw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">芳芳</t>
-  </si>
-  <si>
-    <t xml:space="preserve">零售客户</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赵曦</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/1 0:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/1 10:30:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未审核</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oPM5Uv7hTIt157DKHadJBuzmpejc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">绿袖子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/1 12:34:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oPM5Uv3D1GrL9nGkwtkgEtM2IYbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">～萍～</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魏叶萍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/5/11 18:28:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/1 12:41:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">詹周月</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oB4nYjnoHhuWrPVi2pYLuPjnCaU0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">undefined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杨帆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">666666656549656655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/6/13 10:30:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oPM5Uv81jfyJqWbVxWAH-RUqsCAs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donald</t>
   </si>
   <si>
     <t xml:space="preserve">2018/6/6 9:43:52</t>
@@ -335,41 +341,37 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <v>1110</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
+        <v>1350</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -378,38 +380,38 @@
         <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -418,38 +420,38 @@
         <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
         <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -458,7 +460,7 @@
         <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -466,28 +468,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -496,7 +498,7 @@
         <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -504,28 +506,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -534,7 +536,7 @@
         <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -542,106 +544,110 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8">
+        <v>140</v>
+      </c>
+      <c r="K8" t="s">
         <v>54</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8"/>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
       <c r="M8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J9">
         <v>1375</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9"/>
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
       <c r="M9"/>
       <c r="N9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>32</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
@@ -650,7 +656,7 @@
         <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员信息.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员信息.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
   <si>
     <t xml:space="preserve">微信OpenId</t>
   </si>
@@ -59,6 +59,84 @@
     <t xml:space="preserve">零售户/员工编码</t>
   </si>
   <si>
+    <t xml:space="preserve">oPM5Uv89yy7Iv8k9gLHjjsMTT5Gw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">呦呦路鸣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">零售客户</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵曦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已绑定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/12 16:14:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 12:42:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13880954084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">565465656549656655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已审核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000123596326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oPM5Uv7dX12F4XyYaoQHOcImY83o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未注册</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消费者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未绑定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/4/28 0:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/5/31 17:09:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18022365962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/14 9:59:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oPM5Uv1kErYeF3EmBcT_FjO2zgiw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">芳芳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 0:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/25 17:58:47</t>
+  </si>
+  <si>
     <t xml:space="preserve">oPM5Uv7hTIt157DKHadJBuzmpejc</t>
   </si>
   <si>
@@ -68,31 +146,82 @@
     <t xml:space="preserve">内部员工</t>
   </si>
   <si>
-    <t xml:space="preserve">未绑定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018/4/28 0:00:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">2018/6/1 12:34:47</t>
   </si>
   <si>
-    <t xml:space="preserve">18022365962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">565465656549656655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">000123596326</t>
+    <t xml:space="preserve">oPM5Uv3D1GrL9nGkwtkgEtM2IYbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">～萍～</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魏叶萍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/5/11 18:28:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/25 17:58:54</t>
   </si>
   <si>
     <t xml:space="preserve">cdc3517b-387f-4179-aca8-15cc680b38b3</t>
   </si>
   <si>
     <t xml:space="preserve">詹周月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oB4nYjnoHhuWrPVi2pYLuPjnCaU0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undefined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨帆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/14 14:35:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">666666656549656655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/13 10:30:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001456454566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oPM5Uv81jfyJqWbVxWAH-RUqsCAs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查明芳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/6 9:43:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/6/1 13:10:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18161222015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">989718043305181184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000565653231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54176395-0321-4b22-a91e-c9c587a99f12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">铅笔的彩色天空-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵匡胤</t>
   </si>
 </sst>
 </file>
@@ -209,76 +338,365 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2">
-        <v>80</v>
+        <v>1350</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2"/>
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>80</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8">
+        <v>140</v>
+      </c>
+      <c r="K8" t="s">
         <v>24</v>
       </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9">
+        <v>1375</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员信息.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/files/downloadtemp/会员信息.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t xml:space="preserve">微信OpenId</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t xml:space="preserve">cdc3517b-387f-4179-aca8-15cc680b38b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">老妖怪</t>
   </si>
   <si>
     <t xml:space="preserve">詹周月</t>
@@ -535,13 +538,13 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -573,22 +576,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
@@ -597,7 +600,7 @@
         <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8">
         <v>140</v>
@@ -609,40 +612,40 @@
         <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8"/>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J9">
         <v>1375</v>
@@ -656,21 +659,21 @@
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
